--- a/eval/resultOmer.xlsx
+++ b/eval/resultOmer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26221"/>
   <workbookPr filterPrivacy="1" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12780" tabRatio="730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13020" tabRatio="730" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="case2_varyIter" sheetId="1" r:id="rId1"/>
@@ -6951,15 +6951,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7760,8 +7760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8507,7 +8507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -12122,7 +12122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="I1" activeCellId="1" sqref="I3:K18 I1:K1"/>
     </sheetView>
   </sheetViews>
